--- a/LibroN.xlsx
+++ b/LibroN.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\JLPackages\Geog\jl-ggrphc-logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EscritorioUTE\borrar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6E85F4-9E86-4EEC-B5FC-0410772F6BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1110" windowWidth="13170" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,54 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>tm</t>
   </si>
   <si>
-    <t>T0</t>
+    <t>tp</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>tipo de cult</t>
-  </si>
-  <si>
-    <t>T7R6V3</t>
+    <t>W/T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,11 +410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,16 +428,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>-1*C1</f>
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="B2" s="1">
+        <f>ROUND((A2+$C$1)/4,0)</f>
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -486,13 +456,14 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="B3" s="1">
+        <f t="shared" ref="B3:B50" si="0">ROUND((A3+$C$1)/4,0)</f>
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C29" si="0">A3+C$1</f>
+        <f t="shared" ref="C3:C29" si="1">A3+C$1</f>
         <v>1</v>
       </c>
       <c r="H3" s="2"/>
@@ -506,14 +477,15 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A41" si="1">A3+1</f>
-        <v>-3</v>
+        <f t="shared" ref="A4:A50" si="2">A3+1</f>
+        <v>-11</v>
       </c>
       <c r="B4" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O4" s="2"/>
@@ -523,14 +495,15 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
       <c r="B5" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="O5" s="2"/>
@@ -540,14 +513,15 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>-9</v>
       </c>
       <c r="B6" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O6" s="2"/>
@@ -557,14 +531,15 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-8</v>
       </c>
       <c r="B7" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O7" s="2"/>
@@ -574,14 +549,15 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-7</v>
       </c>
       <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O8" s="2"/>
@@ -591,14 +567,15 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G9" s="2"/>
@@ -607,294 +584,315 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>-5</v>
       </c>
       <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>-4</v>
       </c>
       <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>-3</v>
       </c>
       <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>-2</v>
       </c>
       <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>-1</v>
       </c>
       <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="B30" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:C41" si="2">A30+C$1</f>
+        <f t="shared" ref="C30:C41" si="3">A30+C$1</f>
         <v>28</v>
       </c>
       <c r="G30" s="2"/>
@@ -903,14 +901,15 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="G31" s="2"/>
@@ -918,14 +917,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="G32" s="2"/>
@@ -933,120 +933,255 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B33" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B34" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="B35" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="B36" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="B37" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="B38" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="B39" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:C50" si="4">A42+C$1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B41" s="1">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="2"/>
-        <v>39</v>
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1056,79 +1191,1670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="23" width="3.7109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="N2" s="1">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1">
+        <v>24</v>
+      </c>
+      <c r="T2" s="1">
+        <v>26</v>
+      </c>
+      <c r="U2" s="1">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B$2+(20-$A3)</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:W15" si="0">C$2+(20-$A3)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:Q19" si="1">B$2+(20-$A4)</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:U19" si="2">F$2+(20-$A15)</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" ref="V15:W19" si="3">V$2+(20-$A15)</f>
+        <v>34</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
         <v>11</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
